--- a/va_facility_data_2025-02-20/Cape May County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cape%20May%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cape May County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cape%20May%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0c0051f183d34b82b5620b0f5525efb5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc3f65b9805294f39b030106f6bd38383"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R59de83f0b04b4981872e0c97677656cd"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc2a3b3426ed545c3acbd6421ea93007f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3baf073bc8d94912ab29ae5f4fb07abe"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7fb7469553e64e43a4c791ccd32df3b0"/>
   </x:sheets>
 </x:workbook>
 </file>
